--- a/Panels/parameter_estimates_Omega_Abundance_plot_id.xlsx
+++ b/Panels/parameter_estimates_Omega_Abundance_plot_id.xlsx
@@ -431,37 +431,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.3862106677625119</v>
+        <v>-0.5377633866312876</v>
       </c>
       <c r="D2">
-        <v>-0.8563607880883392</v>
+        <v>-0.8485973616330138</v>
       </c>
       <c r="E2">
-        <v>-0.7969459495933036</v>
+        <v>-0.8381090231870936</v>
       </c>
       <c r="F2">
-        <v>0.299488534278435</v>
+        <v>0.1864735133577468</v>
       </c>
       <c r="G2">
-        <v>0.372846768313185</v>
+        <v>0.1071925286273962</v>
       </c>
       <c r="H2">
-        <v>0.1159923766569259</v>
+        <v>0.2497041081634817</v>
       </c>
       <c r="I2">
-        <v>0.3664477655562247</v>
+        <v>0.2314940117861926</v>
       </c>
       <c r="J2">
-        <v>0.8026558109177904</v>
+        <v>0.6767050281279321</v>
       </c>
       <c r="K2">
-        <v>0.9125825270400529</v>
+        <v>0.7720030588260839</v>
       </c>
       <c r="L2">
-        <v>0.04647612335204328</v>
+        <v>-0.1193209051900785</v>
       </c>
       <c r="M2">
-        <v>0.01459552178695832</v>
+        <v>0.0532685372315756</v>
       </c>
     </row>
     <row r="3">
@@ -471,40 +471,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.3862106677625119</v>
+        <v>-0.5377633866312876</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5692969337721721</v>
+        <v>0.5015857345580716</v>
       </c>
       <c r="E3">
-        <v>0.7494482844845597</v>
+        <v>0.6496964271177555</v>
       </c>
       <c r="F3">
-        <v>0.2834825574808912</v>
+        <v>0.1759418840907249</v>
       </c>
       <c r="G3">
-        <v>0.1712664259320064</v>
+        <v>0.1316130931432942</v>
       </c>
       <c r="H3">
-        <v>-0.0007635011760596817</v>
+        <v>-0.1034377148124571</v>
       </c>
       <c r="I3">
-        <v>0.04947315007555492</v>
+        <v>0.06686937878854789</v>
       </c>
       <c r="J3">
-        <v>-0.1910938925732388</v>
+        <v>-0.3272090093304083</v>
       </c>
       <c r="K3">
-        <v>-0.260158671691001</v>
+        <v>-0.3829656244949766</v>
       </c>
       <c r="L3">
-        <v>0.2664782725769599</v>
+        <v>0.1868950102518895</v>
       </c>
       <c r="M3">
-        <v>0.0824415411108769</v>
+        <v>0.1206619106890533</v>
       </c>
     </row>
     <row r="4">
@@ -514,40 +514,40 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.8563607880883392</v>
+        <v>-0.8485973616330138</v>
       </c>
       <c r="C4">
-        <v>0.5692969337721721</v>
+        <v>0.5015857345580716</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9530050869954125</v>
+        <v>0.9422728002619893</v>
       </c>
       <c r="F4">
-        <v>-0.347592508667644</v>
+        <v>-0.3523986080448464</v>
       </c>
       <c r="G4">
-        <v>-0.24777793730406</v>
+        <v>-0.1292693187542492</v>
       </c>
       <c r="H4">
-        <v>-0.06615153673600349</v>
+        <v>-0.08704038985368938</v>
       </c>
       <c r="I4">
-        <v>-0.2664765367747211</v>
+        <v>-0.2104058937473813</v>
       </c>
       <c r="J4">
-        <v>-0.6427967548444484</v>
+        <v>-0.5654823451425287</v>
       </c>
       <c r="K4">
-        <v>-0.7514086986645585</v>
+        <v>-0.6288078833407544</v>
       </c>
       <c r="L4">
-        <v>0.08641438759504082</v>
+        <v>0.1749747691180588</v>
       </c>
       <c r="M4">
-        <v>0.0376059217001258</v>
+        <v>0.05189399001308099</v>
       </c>
     </row>
     <row r="5">
@@ -557,40 +557,40 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.7969459495933036</v>
+        <v>-0.8381090231870936</v>
       </c>
       <c r="C5">
-        <v>0.7494482844845597</v>
+        <v>0.6496964271177555</v>
       </c>
       <c r="D5">
-        <v>0.9530050869954125</v>
+        <v>0.9422728002619893</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.1021531478250909</v>
+        <v>-0.1295115608267877</v>
       </c>
       <c r="G5">
-        <v>-0.1228671362020668</v>
+        <v>0.04464628188474053</v>
       </c>
       <c r="H5">
-        <v>-0.03646824630182498</v>
+        <v>-0.06192833506550982</v>
       </c>
       <c r="I5">
-        <v>-0.1784005924632154</v>
+        <v>-0.05656548716852684</v>
       </c>
       <c r="J5">
-        <v>-0.5715602630876834</v>
+        <v>-0.4851789854993238</v>
       </c>
       <c r="K5">
-        <v>-0.6851662031157669</v>
+        <v>-0.5934753944355199</v>
       </c>
       <c r="L5">
-        <v>0.1403728076573106</v>
+        <v>0.2122174512746466</v>
       </c>
       <c r="M5">
-        <v>0.0683025586915377</v>
+        <v>0.1326427969997103</v>
       </c>
     </row>
     <row r="6">
@@ -600,40 +600,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.299488534278435</v>
+        <v>0.1864735133577468</v>
       </c>
       <c r="C6">
-        <v>0.2834825574808912</v>
+        <v>0.1759418840907249</v>
       </c>
       <c r="D6">
-        <v>-0.347592508667644</v>
+        <v>-0.3523986080448464</v>
       </c>
       <c r="E6">
-        <v>-0.1021531478250909</v>
+        <v>-0.1295115608267877</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2626915310565552</v>
+        <v>0.2160547629588912</v>
       </c>
       <c r="H6">
-        <v>0.1294485564194785</v>
+        <v>0.2621655049845513</v>
       </c>
       <c r="I6">
-        <v>0.1222282731200046</v>
+        <v>0.1304703085518896</v>
       </c>
       <c r="J6">
-        <v>0.3152433702651854</v>
+        <v>0.2516070188427758</v>
       </c>
       <c r="K6">
-        <v>0.3168294186146298</v>
+        <v>0.1664012173619159</v>
       </c>
       <c r="L6">
-        <v>0.08828288576015933</v>
+        <v>0.006494474843131798</v>
       </c>
       <c r="M6">
-        <v>0.09511494420510729</v>
+        <v>0.3178459899022851</v>
       </c>
     </row>
     <row r="7">
@@ -643,40 +643,40 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.372846768313185</v>
+        <v>0.1071925286273962</v>
       </c>
       <c r="C7">
-        <v>0.1712664259320064</v>
+        <v>0.1316130931432942</v>
       </c>
       <c r="D7">
-        <v>-0.24777793730406</v>
+        <v>-0.1292693187542492</v>
       </c>
       <c r="E7">
-        <v>-0.1228671362020668</v>
+        <v>0.04464628188474053</v>
       </c>
       <c r="F7">
-        <v>0.2626915310565552</v>
+        <v>0.2160547629588912</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5730621174544932</v>
+        <v>0.4985824588511624</v>
       </c>
       <c r="I7">
-        <v>0.8390346021293689</v>
+        <v>0.9435751772411494</v>
       </c>
       <c r="J7">
-        <v>0.6441099884741481</v>
+        <v>0.5044122622282804</v>
       </c>
       <c r="K7">
-        <v>0.4657534311541807</v>
+        <v>0.3689284954235068</v>
       </c>
       <c r="L7">
-        <v>0.2662024405090631</v>
+        <v>0.2298746974458899</v>
       </c>
       <c r="M7">
-        <v>0.5825172286270736</v>
+        <v>0.6712238542137448</v>
       </c>
     </row>
     <row r="8">
@@ -686,40 +686,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1159923766569259</v>
+        <v>0.2497041081634817</v>
       </c>
       <c r="C8">
-        <v>-0.0007635011760596815</v>
+        <v>-0.1034377148124571</v>
       </c>
       <c r="D8">
-        <v>-0.06615153673600348</v>
+        <v>-0.08704038985368938</v>
       </c>
       <c r="E8">
-        <v>-0.03646824630182498</v>
+        <v>-0.06192833506550982</v>
       </c>
       <c r="F8">
-        <v>0.1294485564194785</v>
+        <v>0.2621655049845513</v>
       </c>
       <c r="G8">
-        <v>0.5730621174544932</v>
+        <v>0.4985824588511624</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.7941473503144064</v>
+        <v>0.5526391713632764</v>
       </c>
       <c r="J8">
-        <v>0.3843706528231285</v>
+        <v>0.4682421529206804</v>
       </c>
       <c r="K8">
-        <v>0.19460039920761</v>
+        <v>0.4149627596204382</v>
       </c>
       <c r="L8">
-        <v>0.1317236777314192</v>
+        <v>0.1871994575601633</v>
       </c>
       <c r="M8">
-        <v>0.9737391015881866</v>
+        <v>0.7927345051416583</v>
       </c>
     </row>
     <row r="9">
@@ -729,40 +729,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.3664477655562247</v>
+        <v>0.2314940117861926</v>
       </c>
       <c r="C9">
-        <v>0.04947315007555492</v>
+        <v>0.06686937878854789</v>
       </c>
       <c r="D9">
-        <v>-0.2664765367747211</v>
+        <v>-0.2104058937473813</v>
       </c>
       <c r="E9">
-        <v>-0.1784005924632154</v>
+        <v>-0.05656548716852684</v>
       </c>
       <c r="F9">
-        <v>0.1222282731200046</v>
+        <v>0.1304703085518896</v>
       </c>
       <c r="G9">
-        <v>0.8390346021293689</v>
+        <v>0.9435751772411494</v>
       </c>
       <c r="H9">
-        <v>0.7941473503144064</v>
+        <v>0.5526391713632764</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.5864335103926402</v>
+        <v>0.5733804512632402</v>
       </c>
       <c r="K9">
-        <v>0.4251655757240013</v>
+        <v>0.4599687176907798</v>
       </c>
       <c r="L9">
-        <v>0.2144844193565627</v>
+        <v>0.2160627630480845</v>
       </c>
       <c r="M9">
-        <v>0.7932964851890472</v>
+        <v>0.6907400842501419</v>
       </c>
     </row>
     <row r="10">
@@ -772,40 +772,40 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.8026558109177904</v>
+        <v>0.6767050281279321</v>
       </c>
       <c r="C10">
-        <v>-0.1910938925732388</v>
+        <v>-0.3272090093304083</v>
       </c>
       <c r="D10">
-        <v>-0.6427967548444484</v>
+        <v>-0.5654823451425287</v>
       </c>
       <c r="E10">
-        <v>-0.5715602630876834</v>
+        <v>-0.4851789854993238</v>
       </c>
       <c r="F10">
-        <v>0.3152433702651854</v>
+        <v>0.2516070188427758</v>
       </c>
       <c r="G10">
-        <v>0.6441099884741481</v>
+        <v>0.5044122622282804</v>
       </c>
       <c r="H10">
-        <v>0.3843706528231285</v>
+        <v>0.4682421529206804</v>
       </c>
       <c r="I10">
-        <v>0.5864335103926402</v>
+        <v>0.5733804512632402</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.8899439875819243</v>
+        <v>0.900975240775345</v>
       </c>
       <c r="L10">
-        <v>0.163001774859524</v>
+        <v>0.08261546661110443</v>
       </c>
       <c r="M10">
-        <v>0.3113688304353352</v>
+        <v>0.4401146182717277</v>
       </c>
     </row>
     <row r="11">
@@ -815,40 +815,40 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.9125825270400529</v>
+        <v>0.7720030588260839</v>
       </c>
       <c r="C11">
-        <v>-0.260158671691001</v>
+        <v>-0.3829656244949766</v>
       </c>
       <c r="D11">
-        <v>-0.7514086986645585</v>
+        <v>-0.6288078833407544</v>
       </c>
       <c r="E11">
-        <v>-0.6851662031157669</v>
+        <v>-0.5934753944355199</v>
       </c>
       <c r="F11">
-        <v>0.3168294186146299</v>
+        <v>0.1664012173619159</v>
       </c>
       <c r="G11">
-        <v>0.4657534311541807</v>
+        <v>0.3689284954235068</v>
       </c>
       <c r="H11">
-        <v>0.19460039920761</v>
+        <v>0.4149627596204382</v>
       </c>
       <c r="I11">
-        <v>0.4251655757240013</v>
+        <v>0.4599687176907798</v>
       </c>
       <c r="J11">
-        <v>0.8899439875819243</v>
+        <v>0.900975240775345</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.1257299158783219</v>
+        <v>0.03963784003146333</v>
       </c>
       <c r="M11">
-        <v>0.09895846922886176</v>
+        <v>0.2791381966469957</v>
       </c>
     </row>
     <row r="12">
@@ -858,40 +858,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.04647612335204328</v>
+        <v>-0.1193209051900785</v>
       </c>
       <c r="C12">
-        <v>0.2664782725769599</v>
+        <v>0.1868950102518895</v>
       </c>
       <c r="D12">
-        <v>0.08641438759504082</v>
+        <v>0.1749747691180588</v>
       </c>
       <c r="E12">
-        <v>0.1403728076573106</v>
+        <v>0.2122174512746466</v>
       </c>
       <c r="F12">
-        <v>0.08828288576015933</v>
+        <v>0.006494474843131798</v>
       </c>
       <c r="G12">
-        <v>0.2662024405090631</v>
+        <v>0.2298746974458899</v>
       </c>
       <c r="H12">
-        <v>0.1317236777314192</v>
+        <v>0.1871994575601633</v>
       </c>
       <c r="I12">
-        <v>0.2144844193565627</v>
+        <v>0.2160627630480845</v>
       </c>
       <c r="J12">
-        <v>0.163001774859524</v>
+        <v>0.08261546661110443</v>
       </c>
       <c r="K12">
-        <v>0.1257299158783219</v>
+        <v>0.03963784003146333</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1699258043967339</v>
+        <v>0.2670068945606009</v>
       </c>
     </row>
     <row r="13">
@@ -901,37 +901,37 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.01459552178695832</v>
+        <v>0.0532685372315756</v>
       </c>
       <c r="C13">
-        <v>0.0824415411108769</v>
+        <v>0.1206619106890533</v>
       </c>
       <c r="D13">
-        <v>0.0376059217001258</v>
+        <v>0.05189399001308099</v>
       </c>
       <c r="E13">
-        <v>0.0683025586915377</v>
+        <v>0.1326427969997103</v>
       </c>
       <c r="F13">
-        <v>0.09511494420510729</v>
+        <v>0.3178459899022851</v>
       </c>
       <c r="G13">
-        <v>0.5825172286270736</v>
+        <v>0.6712238542137448</v>
       </c>
       <c r="H13">
-        <v>0.9737391015881866</v>
+        <v>0.7927345051416583</v>
       </c>
       <c r="I13">
-        <v>0.7932964851890472</v>
+        <v>0.6907400842501419</v>
       </c>
       <c r="J13">
-        <v>0.3113688304353352</v>
+        <v>0.4401146182717277</v>
       </c>
       <c r="K13">
-        <v>0.09895846922886176</v>
+        <v>0.2791381966469957</v>
       </c>
       <c r="L13">
-        <v>0.1699258043967339</v>
+        <v>0.2670068945606009</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1022,37 +1022,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1435</v>
+        <v>0.05528125</v>
       </c>
       <c r="D2">
-        <v>0.0516875</v>
+        <v>0.0344375</v>
       </c>
       <c r="E2">
-        <v>0.12471875</v>
+        <v>0.033125</v>
       </c>
       <c r="F2">
-        <v>0.959</v>
+        <v>0.763</v>
       </c>
       <c r="G2">
-        <v>0.8188125000000001</v>
+        <v>0.66</v>
       </c>
       <c r="H2">
-        <v>0.7165625</v>
+        <v>0.7671875</v>
       </c>
       <c r="I2">
-        <v>0.926875</v>
+        <v>0.83584375</v>
       </c>
       <c r="J2">
-        <v>0.99290625</v>
+        <v>0.962</v>
       </c>
       <c r="K2">
-        <v>0.99409375</v>
+        <v>0.96721875</v>
       </c>
       <c r="L2">
-        <v>0.54890625</v>
+        <v>0.47025</v>
       </c>
       <c r="M2">
-        <v>0.55134375</v>
+        <v>0.485875</v>
       </c>
     </row>
     <row r="3">
@@ -1062,40 +1062,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.1435</v>
+        <v>0.05528125</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.99953125</v>
+        <v>0.9308125</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.77446875</v>
+        <v>0.6241875</v>
       </c>
       <c r="G3">
-        <v>0.53853125</v>
+        <v>0.668875</v>
       </c>
       <c r="H3">
-        <v>0.4300625</v>
+        <v>0.4139375</v>
       </c>
       <c r="I3">
-        <v>0.3315</v>
+        <v>0.53703125</v>
       </c>
       <c r="J3">
-        <v>0.25375</v>
+        <v>0.29340625</v>
       </c>
       <c r="K3">
-        <v>0.25046875</v>
+        <v>0.270125</v>
       </c>
       <c r="L3">
-        <v>0.6710625</v>
+        <v>0.66959375</v>
       </c>
       <c r="M3">
-        <v>0.5424687500000001</v>
+        <v>0.665875</v>
       </c>
     </row>
     <row r="4">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.0516875</v>
+        <v>0.0344375</v>
       </c>
       <c r="C4">
-        <v>0.99953125</v>
+        <v>0.9308125</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1117,28 +1117,28 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.031125</v>
+        <v>0.03878125</v>
       </c>
       <c r="G4">
-        <v>0.200625</v>
+        <v>0.24275</v>
       </c>
       <c r="H4">
-        <v>0.340125</v>
+        <v>0.2918125</v>
       </c>
       <c r="I4">
-        <v>0.065125</v>
+        <v>0.08053125</v>
       </c>
       <c r="J4">
-        <v>0.08065625</v>
+        <v>0.108625</v>
       </c>
       <c r="K4">
-        <v>0.075375</v>
+        <v>0.10178125</v>
       </c>
       <c r="L4">
-        <v>0.529875</v>
+        <v>0.58521875</v>
       </c>
       <c r="M4">
-        <v>0.53153125</v>
+        <v>0.58728125</v>
       </c>
     </row>
     <row r="5">
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.12471875</v>
+        <v>0.033125</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1160,28 +1160,28 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.33109375</v>
+        <v>0.348</v>
       </c>
       <c r="G5">
-        <v>0.428</v>
+        <v>0.647</v>
       </c>
       <c r="H5">
-        <v>0.4315625</v>
+        <v>0.4018125</v>
       </c>
       <c r="I5">
-        <v>0.23353125</v>
+        <v>0.4423125</v>
       </c>
       <c r="J5">
-        <v>0.2395625</v>
+        <v>0.30175</v>
       </c>
       <c r="K5">
-        <v>0.220125</v>
+        <v>0.25046875</v>
       </c>
       <c r="L5">
-        <v>0.645625</v>
+        <v>0.66296875</v>
       </c>
       <c r="M5">
-        <v>0.64428125</v>
+        <v>0.81128125</v>
       </c>
     </row>
     <row r="6">
@@ -1191,40 +1191,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.959</v>
+        <v>0.763</v>
       </c>
       <c r="C6">
-        <v>0.77446875</v>
+        <v>0.6241875</v>
       </c>
       <c r="D6">
-        <v>0.031125</v>
+        <v>0.03878125</v>
       </c>
       <c r="E6">
-        <v>0.33109375</v>
+        <v>0.348</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.851125</v>
+        <v>0.825125</v>
       </c>
       <c r="H6">
-        <v>0.68871875</v>
+        <v>0.7001875</v>
       </c>
       <c r="I6">
-        <v>0.883125</v>
+        <v>0.843875</v>
       </c>
       <c r="J6">
-        <v>0.97109375</v>
+        <v>0.8485</v>
       </c>
       <c r="K6">
-        <v>0.96496875</v>
+        <v>0.78425</v>
       </c>
       <c r="L6">
-        <v>0.58928125</v>
+        <v>0.51975</v>
       </c>
       <c r="M6">
-        <v>0.60415625</v>
+        <v>0.7435625</v>
       </c>
     </row>
     <row r="7">
@@ -1234,40 +1234,40 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.8188125000000001</v>
+        <v>0.66</v>
       </c>
       <c r="C7">
-        <v>0.53853125</v>
+        <v>0.668875</v>
       </c>
       <c r="D7">
-        <v>0.200625</v>
+        <v>0.24275</v>
       </c>
       <c r="E7">
-        <v>0.428</v>
+        <v>0.647</v>
       </c>
       <c r="F7">
-        <v>0.851125</v>
+        <v>0.825125</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.87353125</v>
+        <v>0.87228125</v>
       </c>
       <c r="I7">
-        <v>0.9991875</v>
+        <v>0.999</v>
       </c>
       <c r="J7">
-        <v>0.9156562499999999</v>
+        <v>0.849125</v>
       </c>
       <c r="K7">
-        <v>0.83846875</v>
+        <v>0.74240625</v>
       </c>
       <c r="L7">
-        <v>0.65265625</v>
+        <v>0.6370625</v>
       </c>
       <c r="M7">
-        <v>0.90578125</v>
+        <v>0.91759375</v>
       </c>
     </row>
     <row r="8">
@@ -1277,40 +1277,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.7165625</v>
+        <v>0.7671875</v>
       </c>
       <c r="C8">
-        <v>0.4300625</v>
+        <v>0.4139375</v>
       </c>
       <c r="D8">
-        <v>0.340125</v>
+        <v>0.2918125</v>
       </c>
       <c r="E8">
-        <v>0.4315625</v>
+        <v>0.4018125</v>
       </c>
       <c r="F8">
-        <v>0.68871875</v>
+        <v>0.7001875</v>
       </c>
       <c r="G8">
-        <v>0.87353125</v>
+        <v>0.87228125</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.94071875</v>
+        <v>0.8933125</v>
       </c>
       <c r="J8">
-        <v>0.83915625</v>
+        <v>0.8485</v>
       </c>
       <c r="K8">
-        <v>0.7193125</v>
+        <v>0.798</v>
       </c>
       <c r="L8">
-        <v>0.583875</v>
+        <v>0.58953125</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.9530625</v>
       </c>
     </row>
     <row r="9">
@@ -1320,40 +1320,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.926875</v>
+        <v>0.83584375</v>
       </c>
       <c r="C9">
-        <v>0.3315</v>
+        <v>0.53703125</v>
       </c>
       <c r="D9">
-        <v>0.065125</v>
+        <v>0.08053125</v>
       </c>
       <c r="E9">
-        <v>0.23353125</v>
+        <v>0.4423125</v>
       </c>
       <c r="F9">
-        <v>0.883125</v>
+        <v>0.843875</v>
       </c>
       <c r="G9">
-        <v>0.9991875</v>
+        <v>0.999</v>
       </c>
       <c r="H9">
-        <v>0.94071875</v>
+        <v>0.8933125</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9434375</v>
+        <v>0.9286875</v>
       </c>
       <c r="K9">
-        <v>0.93103125</v>
+        <v>0.87846875</v>
       </c>
       <c r="L9">
-        <v>0.62603125</v>
+        <v>0.59265625</v>
       </c>
       <c r="M9">
-        <v>0.9385</v>
+        <v>0.890875</v>
       </c>
     </row>
     <row r="10">
@@ -1363,40 +1363,40 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.99290625</v>
+        <v>0.962</v>
       </c>
       <c r="C10">
-        <v>0.25375</v>
+        <v>0.29340625</v>
       </c>
       <c r="D10">
-        <v>0.08065625</v>
+        <v>0.108625</v>
       </c>
       <c r="E10">
-        <v>0.2395625</v>
+        <v>0.30175</v>
       </c>
       <c r="F10">
-        <v>0.97109375</v>
+        <v>0.8485</v>
       </c>
       <c r="G10">
-        <v>0.9156562499999999</v>
+        <v>0.849125</v>
       </c>
       <c r="H10">
-        <v>0.83915625</v>
+        <v>0.8485</v>
       </c>
       <c r="I10">
-        <v>0.9434375</v>
+        <v>0.9286875</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.9985000000000001</v>
+        <v>0.99484375</v>
       </c>
       <c r="L10">
-        <v>0.57425</v>
+        <v>0.53328125</v>
       </c>
       <c r="M10">
-        <v>0.77021875</v>
+        <v>0.6954375</v>
       </c>
     </row>
     <row r="11">
@@ -1406,40 +1406,40 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.99409375</v>
+        <v>0.96721875</v>
       </c>
       <c r="C11">
+        <v>0.270125</v>
+      </c>
+      <c r="D11">
+        <v>0.10178125</v>
+      </c>
+      <c r="E11">
         <v>0.25046875</v>
       </c>
-      <c r="D11">
-        <v>0.075375</v>
-      </c>
-      <c r="E11">
-        <v>0.220125</v>
-      </c>
       <c r="F11">
-        <v>0.96496875</v>
+        <v>0.78425</v>
       </c>
       <c r="G11">
-        <v>0.83846875</v>
+        <v>0.74240625</v>
       </c>
       <c r="H11">
-        <v>0.7193125</v>
+        <v>0.798</v>
       </c>
       <c r="I11">
-        <v>0.93103125</v>
+        <v>0.87846875</v>
       </c>
       <c r="J11">
-        <v>0.9985000000000001</v>
+        <v>0.99484375</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.56371875</v>
+        <v>0.5218437500000001</v>
       </c>
       <c r="M11">
-        <v>0.57053125</v>
+        <v>0.5367499999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1449,40 +1449,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.54890625</v>
+        <v>0.47025</v>
       </c>
       <c r="C12">
-        <v>0.6710625</v>
+        <v>0.66959375</v>
       </c>
       <c r="D12">
-        <v>0.529875</v>
+        <v>0.58521875</v>
       </c>
       <c r="E12">
-        <v>0.645625</v>
+        <v>0.66296875</v>
       </c>
       <c r="F12">
-        <v>0.58928125</v>
+        <v>0.51975</v>
       </c>
       <c r="G12">
-        <v>0.65265625</v>
+        <v>0.6370625</v>
       </c>
       <c r="H12">
-        <v>0.583875</v>
+        <v>0.58953125</v>
       </c>
       <c r="I12">
-        <v>0.62603125</v>
+        <v>0.59265625</v>
       </c>
       <c r="J12">
-        <v>0.57425</v>
+        <v>0.53328125</v>
       </c>
       <c r="K12">
-        <v>0.56371875</v>
+        <v>0.5218437500000001</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6421875</v>
+        <v>0.67690625</v>
       </c>
     </row>
     <row r="13">
@@ -1492,37 +1492,37 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.55134375</v>
+        <v>0.485875</v>
       </c>
       <c r="C13">
-        <v>0.5424687500000001</v>
+        <v>0.665875</v>
       </c>
       <c r="D13">
-        <v>0.53153125</v>
+        <v>0.58728125</v>
       </c>
       <c r="E13">
-        <v>0.64428125</v>
+        <v>0.81128125</v>
       </c>
       <c r="F13">
-        <v>0.60415625</v>
+        <v>0.7435625</v>
       </c>
       <c r="G13">
-        <v>0.90578125</v>
+        <v>0.91759375</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.9530625</v>
       </c>
       <c r="I13">
-        <v>0.9385</v>
+        <v>0.890875</v>
       </c>
       <c r="J13">
-        <v>0.77021875</v>
+        <v>0.6954375</v>
       </c>
       <c r="K13">
-        <v>0.57053125</v>
+        <v>0.5367499999999999</v>
       </c>
       <c r="L13">
-        <v>0.6421875</v>
+        <v>0.67690625</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1613,37 +1613,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8565</v>
+        <v>0.9447187500000001</v>
       </c>
       <c r="D2">
-        <v>0.9483125</v>
+        <v>0.9655625</v>
       </c>
       <c r="E2">
-        <v>0.87528125</v>
+        <v>0.966875</v>
       </c>
       <c r="F2">
-        <v>0.04100000000000004</v>
+        <v>0.237</v>
       </c>
       <c r="G2">
-        <v>0.1811874999999999</v>
+        <v>0.34</v>
       </c>
       <c r="H2">
-        <v>0.2834375</v>
+        <v>0.2328125</v>
       </c>
       <c r="I2">
-        <v>0.073125</v>
+        <v>0.16415625</v>
       </c>
       <c r="J2">
-        <v>0.00709375000000001</v>
+        <v>0.03800000000000003</v>
       </c>
       <c r="K2">
-        <v>0.005906250000000002</v>
+        <v>0.03278124999999998</v>
       </c>
       <c r="L2">
-        <v>0.45109375</v>
+        <v>0.5297499999999999</v>
       </c>
       <c r="M2">
-        <v>0.44865625</v>
+        <v>0.5141249999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1653,40 +1653,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8565</v>
+        <v>0.9447187500000001</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0004687500000000178</v>
+        <v>0.06918749999999996</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.22553125</v>
+        <v>0.3758125</v>
       </c>
       <c r="G3">
-        <v>0.46146875</v>
+        <v>0.331125</v>
       </c>
       <c r="H3">
-        <v>0.5699375</v>
+        <v>0.5860624999999999</v>
       </c>
       <c r="I3">
-        <v>0.6685</v>
+        <v>0.46296875</v>
       </c>
       <c r="J3">
-        <v>0.7462500000000001</v>
+        <v>0.70659375</v>
       </c>
       <c r="K3">
-        <v>0.74953125</v>
+        <v>0.7298750000000001</v>
       </c>
       <c r="L3">
-        <v>0.3289375</v>
+        <v>0.33040625</v>
       </c>
       <c r="M3">
-        <v>0.4575312499999999</v>
+        <v>0.334125</v>
       </c>
     </row>
     <row r="4">
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.9483125</v>
+        <v>0.9655625</v>
       </c>
       <c r="C4">
-        <v>0.0004687500000000178</v>
+        <v>0.06918749999999996</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1708,28 +1708,28 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.968875</v>
+        <v>0.96121875</v>
       </c>
       <c r="G4">
-        <v>0.7993749999999999</v>
+        <v>0.75725</v>
       </c>
       <c r="H4">
-        <v>0.659875</v>
+        <v>0.7081875</v>
       </c>
       <c r="I4">
-        <v>0.934875</v>
+        <v>0.9194687500000001</v>
       </c>
       <c r="J4">
-        <v>0.91934375</v>
+        <v>0.891375</v>
       </c>
       <c r="K4">
-        <v>0.924625</v>
+        <v>0.89821875</v>
       </c>
       <c r="L4">
-        <v>0.470125</v>
+        <v>0.41478125</v>
       </c>
       <c r="M4">
-        <v>0.46846875</v>
+        <v>0.41271875</v>
       </c>
     </row>
     <row r="5">
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.87528125</v>
+        <v>0.966875</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1751,28 +1751,28 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.66890625</v>
+        <v>0.652</v>
       </c>
       <c r="G5">
-        <v>0.5720000000000001</v>
+        <v>0.353</v>
       </c>
       <c r="H5">
-        <v>0.5684374999999999</v>
+        <v>0.5981875</v>
       </c>
       <c r="I5">
-        <v>0.76646875</v>
+        <v>0.5576875</v>
       </c>
       <c r="J5">
-        <v>0.7604375</v>
+        <v>0.69825</v>
       </c>
       <c r="K5">
-        <v>0.779875</v>
+        <v>0.74953125</v>
       </c>
       <c r="L5">
-        <v>0.354375</v>
+        <v>0.33703125</v>
       </c>
       <c r="M5">
-        <v>0.35571875</v>
+        <v>0.18871875</v>
       </c>
     </row>
     <row r="6">
@@ -1782,40 +1782,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.04100000000000004</v>
+        <v>0.237</v>
       </c>
       <c r="C6">
-        <v>0.22553125</v>
+        <v>0.3758125</v>
       </c>
       <c r="D6">
-        <v>0.968875</v>
+        <v>0.96121875</v>
       </c>
       <c r="E6">
-        <v>0.66890625</v>
+        <v>0.652</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.148875</v>
+        <v>0.174875</v>
       </c>
       <c r="H6">
-        <v>0.31128125</v>
+        <v>0.2998125</v>
       </c>
       <c r="I6">
-        <v>0.116875</v>
+        <v>0.156125</v>
       </c>
       <c r="J6">
-        <v>0.02890625000000002</v>
+        <v>0.1515</v>
       </c>
       <c r="K6">
-        <v>0.03503124999999996</v>
+        <v>0.21575</v>
       </c>
       <c r="L6">
-        <v>0.41071875</v>
+        <v>0.48025</v>
       </c>
       <c r="M6">
-        <v>0.39584375</v>
+        <v>0.2564375</v>
       </c>
     </row>
     <row r="7">
@@ -1825,40 +1825,40 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.1811874999999999</v>
+        <v>0.34</v>
       </c>
       <c r="C7">
-        <v>0.46146875</v>
+        <v>0.331125</v>
       </c>
       <c r="D7">
-        <v>0.7993749999999999</v>
+        <v>0.75725</v>
       </c>
       <c r="E7">
-        <v>0.5720000000000001</v>
+        <v>0.353</v>
       </c>
       <c r="F7">
-        <v>0.148875</v>
+        <v>0.174875</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.12646875</v>
+        <v>0.12771875</v>
       </c>
       <c r="I7">
-        <v>0.0008124999999999938</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="J7">
-        <v>0.08434375000000005</v>
+        <v>0.150875</v>
       </c>
       <c r="K7">
-        <v>0.16153125</v>
+        <v>0.25759375</v>
       </c>
       <c r="L7">
-        <v>0.34734375</v>
+        <v>0.3629375</v>
       </c>
       <c r="M7">
-        <v>0.09421875000000002</v>
+        <v>0.08240625000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1868,40 +1868,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.2834375</v>
+        <v>0.2328125</v>
       </c>
       <c r="C8">
-        <v>0.5699375</v>
+        <v>0.5860624999999999</v>
       </c>
       <c r="D8">
-        <v>0.659875</v>
+        <v>0.7081875</v>
       </c>
       <c r="E8">
-        <v>0.5684374999999999</v>
+        <v>0.5981875</v>
       </c>
       <c r="F8">
-        <v>0.31128125</v>
+        <v>0.2998125</v>
       </c>
       <c r="G8">
-        <v>0.12646875</v>
+        <v>0.12771875</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.05928124999999995</v>
+        <v>0.1066875</v>
       </c>
       <c r="J8">
-        <v>0.16084375</v>
+        <v>0.1515</v>
       </c>
       <c r="K8">
-        <v>0.2806875</v>
+        <v>0.202</v>
       </c>
       <c r="L8">
-        <v>0.416125</v>
+        <v>0.41046875</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04693749999999997</v>
       </c>
     </row>
     <row r="9">
@@ -1911,40 +1911,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.073125</v>
+        <v>0.16415625</v>
       </c>
       <c r="C9">
-        <v>0.6685</v>
+        <v>0.46296875</v>
       </c>
       <c r="D9">
-        <v>0.934875</v>
+        <v>0.9194687500000001</v>
       </c>
       <c r="E9">
-        <v>0.76646875</v>
+        <v>0.5576875</v>
       </c>
       <c r="F9">
-        <v>0.116875</v>
+        <v>0.156125</v>
       </c>
       <c r="G9">
-        <v>0.0008124999999999938</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="H9">
-        <v>0.05928124999999995</v>
+        <v>0.1066875</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05656249999999996</v>
+        <v>0.0713125</v>
       </c>
       <c r="K9">
-        <v>0.06896875000000002</v>
+        <v>0.12153125</v>
       </c>
       <c r="L9">
-        <v>0.37396875</v>
+        <v>0.40734375</v>
       </c>
       <c r="M9">
-        <v>0.0615</v>
+        <v>0.109125</v>
       </c>
     </row>
     <row r="10">
@@ -1954,40 +1954,40 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.00709375000000001</v>
+        <v>0.03800000000000003</v>
       </c>
       <c r="C10">
-        <v>0.7462500000000001</v>
+        <v>0.70659375</v>
       </c>
       <c r="D10">
-        <v>0.91934375</v>
+        <v>0.891375</v>
       </c>
       <c r="E10">
-        <v>0.7604375</v>
+        <v>0.69825</v>
       </c>
       <c r="F10">
-        <v>0.02890625000000002</v>
+        <v>0.1515</v>
       </c>
       <c r="G10">
-        <v>0.08434375000000005</v>
+        <v>0.150875</v>
       </c>
       <c r="H10">
-        <v>0.16084375</v>
+        <v>0.1515</v>
       </c>
       <c r="I10">
-        <v>0.05656249999999996</v>
+        <v>0.0713125</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.001499999999999946</v>
+        <v>0.005156249999999973</v>
       </c>
       <c r="L10">
-        <v>0.42575</v>
+        <v>0.46671875</v>
       </c>
       <c r="M10">
-        <v>0.22978125</v>
+        <v>0.3045625</v>
       </c>
     </row>
     <row r="11">
@@ -1997,40 +1997,40 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.005906250000000002</v>
+        <v>0.03278124999999998</v>
       </c>
       <c r="C11">
+        <v>0.7298750000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.89821875</v>
+      </c>
+      <c r="E11">
         <v>0.74953125</v>
       </c>
-      <c r="D11">
-        <v>0.924625</v>
-      </c>
-      <c r="E11">
-        <v>0.779875</v>
-      </c>
       <c r="F11">
-        <v>0.03503124999999996</v>
+        <v>0.21575</v>
       </c>
       <c r="G11">
-        <v>0.16153125</v>
+        <v>0.25759375</v>
       </c>
       <c r="H11">
-        <v>0.2806875</v>
+        <v>0.202</v>
       </c>
       <c r="I11">
-        <v>0.06896875000000002</v>
+        <v>0.12153125</v>
       </c>
       <c r="J11">
-        <v>0.001499999999999946</v>
+        <v>0.005156249999999973</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.43628125</v>
+        <v>0.4781562499999999</v>
       </c>
       <c r="M11">
-        <v>0.42946875</v>
+        <v>0.4632500000000001</v>
       </c>
     </row>
     <row r="12">
@@ -2040,40 +2040,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.45109375</v>
+        <v>0.5297499999999999</v>
       </c>
       <c r="C12">
-        <v>0.3289375</v>
+        <v>0.33040625</v>
       </c>
       <c r="D12">
-        <v>0.470125</v>
+        <v>0.41478125</v>
       </c>
       <c r="E12">
-        <v>0.354375</v>
+        <v>0.33703125</v>
       </c>
       <c r="F12">
-        <v>0.41071875</v>
+        <v>0.48025</v>
       </c>
       <c r="G12">
-        <v>0.34734375</v>
+        <v>0.3629375</v>
       </c>
       <c r="H12">
-        <v>0.416125</v>
+        <v>0.41046875</v>
       </c>
       <c r="I12">
-        <v>0.37396875</v>
+        <v>0.40734375</v>
       </c>
       <c r="J12">
-        <v>0.42575</v>
+        <v>0.46671875</v>
       </c>
       <c r="K12">
-        <v>0.43628125</v>
+        <v>0.4781562499999999</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3578125</v>
+        <v>0.32309375</v>
       </c>
     </row>
     <row r="13">
@@ -2083,37 +2083,37 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.44865625</v>
+        <v>0.5141249999999999</v>
       </c>
       <c r="C13">
-        <v>0.4575312499999999</v>
+        <v>0.334125</v>
       </c>
       <c r="D13">
-        <v>0.46846875</v>
+        <v>0.41271875</v>
       </c>
       <c r="E13">
-        <v>0.35571875</v>
+        <v>0.18871875</v>
       </c>
       <c r="F13">
-        <v>0.39584375</v>
+        <v>0.2564375</v>
       </c>
       <c r="G13">
-        <v>0.09421875000000002</v>
+        <v>0.08240625000000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.04693749999999997</v>
       </c>
       <c r="I13">
-        <v>0.0615</v>
+        <v>0.109125</v>
       </c>
       <c r="J13">
-        <v>0.22978125</v>
+        <v>0.3045625</v>
       </c>
       <c r="K13">
-        <v>0.42946875</v>
+        <v>0.4632500000000001</v>
       </c>
       <c r="L13">
-        <v>0.3578125</v>
+        <v>0.32309375</v>
       </c>
       <c r="M13">
         <v>0</v>

--- a/Panels/parameter_estimates_Omega_Abundance_plot_id.xlsx
+++ b/Panels/parameter_estimates_Omega_Abundance_plot_id.xlsx
@@ -362,69 +362,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -467,7 +467,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5015857345580716</v>
+        <v>0.5015857345580717</v>
       </c>
       <c r="E3">
-        <v>0.6496964271177555</v>
+        <v>0.6496964271177556</v>
       </c>
       <c r="F3">
         <v>0.1759418840907249</v>
@@ -510,14 +510,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
         <v>-0.8485973616330138</v>
       </c>
       <c r="C4">
-        <v>0.5015857345580716</v>
+        <v>0.5015857345580717</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -553,14 +553,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
         <v>-0.8381090231870936</v>
       </c>
       <c r="C5">
-        <v>0.6496964271177555</v>
+        <v>0.6496964271177556</v>
       </c>
       <c r="D5">
         <v>0.9422728002619893</v>
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -639,7 +639,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -682,7 +682,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.5526391713632764</v>
+        <v>0.5526391713632765</v>
       </c>
       <c r="J8">
         <v>0.4682421529206804</v>
@@ -716,7 +716,7 @@
         <v>0.4149627596204382</v>
       </c>
       <c r="L8">
-        <v>0.1871994575601633</v>
+        <v>0.1871994575601634</v>
       </c>
       <c r="M8">
         <v>0.7927345051416583</v>
@@ -725,7 +725,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -747,7 +747,7 @@
         <v>0.9435751772411494</v>
       </c>
       <c r="H9">
-        <v>0.5526391713632764</v>
+        <v>0.5526391713632765</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -768,7 +768,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -811,7 +811,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -854,7 +854,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -876,7 +876,7 @@
         <v>0.2298746974458899</v>
       </c>
       <c r="H12">
-        <v>0.1871994575601633</v>
+        <v>0.1871994575601634</v>
       </c>
       <c r="I12">
         <v>0.2160627630480845</v>
@@ -891,13 +891,13 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2670068945606009</v>
+        <v>0.267006894560601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -931,7 +931,7 @@
         <v>0.2791381966469957</v>
       </c>
       <c r="L13">
-        <v>0.2670068945606009</v>
+        <v>0.267006894560601</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -953,69 +953,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1058,7 +1058,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1101,7 +1101,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1144,7 +1144,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -1187,7 +1187,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -1221,7 +1221,7 @@
         <v>0.78425</v>
       </c>
       <c r="L6">
-        <v>0.51975</v>
+        <v>0.5197500000000001</v>
       </c>
       <c r="M6">
         <v>0.7435625</v>
@@ -1230,7 +1230,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1261,7 +1261,7 @@
         <v>0.849125</v>
       </c>
       <c r="K7">
-        <v>0.74240625</v>
+        <v>0.7424062500000001</v>
       </c>
       <c r="L7">
         <v>0.6370625</v>
@@ -1273,7 +1273,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1316,7 +1316,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -1359,7 +1359,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1402,7 +1402,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -1421,7 +1421,7 @@
         <v>0.78425</v>
       </c>
       <c r="G11">
-        <v>0.74240625</v>
+        <v>0.7424062500000001</v>
       </c>
       <c r="H11">
         <v>0.798</v>
@@ -1439,13 +1439,13 @@
         <v>0.5218437500000001</v>
       </c>
       <c r="M11">
-        <v>0.5367499999999999</v>
+        <v>0.53675</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -1461,7 +1461,7 @@
         <v>0.66296875</v>
       </c>
       <c r="F12">
-        <v>0.51975</v>
+        <v>0.5197500000000001</v>
       </c>
       <c r="G12">
         <v>0.6370625</v>
@@ -1488,7 +1488,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -1519,7 +1519,7 @@
         <v>0.6954375</v>
       </c>
       <c r="K13">
-        <v>0.5367499999999999</v>
+        <v>0.53675</v>
       </c>
       <c r="L13">
         <v>0.67690625</v>
@@ -1544,69 +1544,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1649,7 +1649,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1692,7 +1692,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1735,7 +1735,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -1772,13 +1772,13 @@
         <v>0.33703125</v>
       </c>
       <c r="M5">
-        <v>0.18871875</v>
+        <v>0.1887187500000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -1821,7 +1821,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1864,7 +1864,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1066875</v>
+        <v>0.1066875000000001</v>
       </c>
       <c r="J8">
         <v>0.1515</v>
@@ -1898,7 +1898,7 @@
         <v>0.202</v>
       </c>
       <c r="L8">
-        <v>0.41046875</v>
+        <v>0.4104687500000001</v>
       </c>
       <c r="M8">
         <v>0.04693749999999997</v>
@@ -1907,7 +1907,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -1929,7 +1929,7 @@
         <v>0.001000000000000001</v>
       </c>
       <c r="H9">
-        <v>0.1066875</v>
+        <v>0.1066875000000001</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1950,7 +1950,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1993,7 +1993,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4781562499999999</v>
+        <v>0.47815625</v>
       </c>
       <c r="M11">
         <v>0.4632500000000001</v>
@@ -2036,7 +2036,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -2058,7 +2058,7 @@
         <v>0.3629375</v>
       </c>
       <c r="H12">
-        <v>0.41046875</v>
+        <v>0.4104687500000001</v>
       </c>
       <c r="I12">
         <v>0.40734375</v>
@@ -2067,7 +2067,7 @@
         <v>0.46671875</v>
       </c>
       <c r="K12">
-        <v>0.4781562499999999</v>
+        <v>0.47815625</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -2092,7 +2092,7 @@
         <v>0.41271875</v>
       </c>
       <c r="E13">
-        <v>0.18871875</v>
+        <v>0.1887187500000001</v>
       </c>
       <c r="F13">
         <v>0.2564375</v>
